--- a/export/eqx_index_export_2024-06-25.xlsx
+++ b/export/eqx_index_export_2024-06-25.xlsx
@@ -467,13 +467,13 @@
         <v>45428</v>
       </c>
       <c r="B2" t="n">
-        <v>282.6091</v>
+        <v>282.6137</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.007320860729774892</v>
+        <v>-0.007320742443130079</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00153016052023347</v>
+        <v>-0.001529430136239185</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>45429</v>
       </c>
       <c r="B3" t="n">
-        <v>283.4998</v>
+        <v>283.5043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003151703182947774</v>
+        <v>0.003151298043937656</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006772905253902284</v>
+        <v>0.006773154543549653</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>45432</v>
       </c>
       <c r="B4" t="n">
-        <v>289.3068</v>
+        <v>289.3114</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02048325960018316</v>
+        <v>0.02048328720234571</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0243345434099802</v>
+        <v>0.02433487243054455</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>45433</v>
       </c>
       <c r="B5" t="n">
-        <v>285.2654</v>
+        <v>285.27</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01396925340157928</v>
+        <v>-0.01396903129292526</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002009530958403172</v>
+        <v>0.0020094984894512</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>45434</v>
       </c>
       <c r="B6" t="n">
-        <v>285.1643</v>
+        <v>285.169</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0003544068085368224</v>
+        <v>-0.0003540505486030465</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009041463986828591</v>
+        <v>0.009041670662108592</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         <v>45435</v>
       </c>
       <c r="B7" t="n">
-        <v>288.9914</v>
+        <v>288.996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01342068414594655</v>
+        <v>0.01342011228429452</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01937073676947909</v>
+        <v>0.01937078203046627</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         <v>45436</v>
       </c>
       <c r="B8" t="n">
-        <v>287.4237</v>
+        <v>287.4284</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.005424728901967324</v>
+        <v>-0.005424296530055717</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.006509007047190263</v>
+        <v>-0.006508557906809043</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +565,13 @@
         <v>45440</v>
       </c>
       <c r="B9" t="n">
-        <v>288.1548</v>
+        <v>288.1595</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002543631579441819</v>
+        <v>0.002543589986236494</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01048693682904878</v>
+        <v>0.01048676398907311</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         <v>45441</v>
       </c>
       <c r="B10" t="n">
-        <v>285.5646</v>
+        <v>285.5692</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.008988918456329875</v>
+        <v>-0.008989118873401591</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01185779230800654</v>
+        <v>-0.01185760356544718</v>
       </c>
     </row>
     <row r="11">
@@ -593,13 +593,13 @@
         <v>45442</v>
       </c>
       <c r="B11" t="n">
-        <v>280.9458</v>
+        <v>280.9504</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01617427370199231</v>
+        <v>-0.01617401316388467</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02253780742506617</v>
+        <v>-0.02253778680186092</v>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
         <v>45443</v>
       </c>
       <c r="B12" t="n">
-        <v>281.4218</v>
+        <v>281.4263</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001694276974419928</v>
+        <v>0.001693893299315574</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02336591304396107</v>
+        <v>-0.0233662259963664</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         <v>45446</v>
       </c>
       <c r="B13" t="n">
-        <v>281.1419</v>
+        <v>281.1464</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0009945924587221322</v>
+        <v>-0.0009945765552117347</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.02433726594177854</v>
+        <v>-0.02433756305101842</v>
       </c>
     </row>
     <row r="14">
@@ -635,13 +635,13 @@
         <v>45447</v>
       </c>
       <c r="B14" t="n">
-        <v>280.831</v>
+        <v>280.8354</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.001105847260760462</v>
+        <v>-0.00110618524725925</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01657628431535274</v>
+        <v>-0.01657671765722635</v>
       </c>
     </row>
     <row r="15">
@@ -649,13 +649,13 @@
         <v>45448</v>
       </c>
       <c r="B15" t="n">
-        <v>287.9701</v>
+        <v>287.9748</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02542133881231057</v>
+        <v>0.02542200876385259</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02500233141054253</v>
+        <v>0.0250022779821637</v>
       </c>
     </row>
     <row r="16">
@@ -663,13 +663,13 @@
         <v>45449</v>
       </c>
       <c r="B16" t="n">
-        <v>288.6028</v>
+        <v>288.6075</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002197103102023368</v>
+        <v>0.002197067243383755</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02551685761373146</v>
+        <v>0.02551716026540518</v>
       </c>
     </row>
     <row r="17">
@@ -677,13 +677,13 @@
         <v>45450</v>
       </c>
       <c r="B17" t="n">
-        <v>289.8494</v>
+        <v>289.8541</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004319431412307839</v>
+        <v>0.004319361069965222</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03097190422345442</v>
+        <v>0.03097211986352999</v>
       </c>
     </row>
     <row r="18">
@@ -691,13 +691,13 @@
         <v>45453</v>
       </c>
       <c r="B18" t="n">
-        <v>286.1297</v>
+        <v>286.1346</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01283321614603994</v>
+        <v>-0.01283231805242724</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01886793124690622</v>
+        <v>0.0188694160351579</v>
       </c>
     </row>
     <row r="19">
@@ -705,13 +705,13 @@
         <v>45454</v>
       </c>
       <c r="B19" t="n">
-        <v>290.8685</v>
+        <v>290.8734</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01656172008707935</v>
+        <v>0.01656143647080799</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01006493382472673</v>
+        <v>0.0100654640614386</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +719,13 @@
         <v>45455</v>
       </c>
       <c r="B20" t="n">
-        <v>293.4383</v>
+        <v>293.4433</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008834920247466016</v>
+        <v>0.008835115208197131</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01675486169919371</v>
+        <v>0.01675562831873734</v>
       </c>
     </row>
     <row r="21">
@@ -733,13 +733,13 @@
         <v>45456</v>
       </c>
       <c r="B21" t="n">
-        <v>293.094</v>
+        <v>293.099</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.001173330134478179</v>
+        <v>-0.001173310142027595</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01119408906832331</v>
+        <v>0.01119494255903208</v>
       </c>
     </row>
     <row r="22">
@@ -747,13 +747,13 @@
         <v>45457</v>
       </c>
       <c r="B22" t="n">
-        <v>294.0115</v>
+        <v>294.0166</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003130395026851529</v>
+        <v>0.003130682806833152</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02754624913107584</v>
+        <v>0.02754647637859953</v>
       </c>
     </row>
     <row r="23">
@@ -761,13 +761,13 @@
         <v>45460</v>
       </c>
       <c r="B23" t="n">
-        <v>297.029</v>
+        <v>297.0342</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0102632039903201</v>
+        <v>0.01026336608205125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02117967397638476</v>
+        <v>0.0211803485640143</v>
       </c>
     </row>
     <row r="24">
@@ -775,13 +775,13 @@
         <v>45461</v>
       </c>
       <c r="B24" t="n">
-        <v>298.1148</v>
+        <v>298.1181</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003655535318100256</v>
+        <v>0.003649074753008241</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01593691075772985</v>
+        <v>0.01593084592491967</v>
       </c>
     </row>
     <row r="25">
@@ -789,13 +789,13 @@
         <v>45463</v>
       </c>
       <c r="B25" t="n">
-        <v>297.8109</v>
+        <v>297.8141</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.001019405946970808</v>
+        <v>-0.001019730100252358</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01292262377492026</v>
+        <v>0.01291593739945296</v>
       </c>
     </row>
     <row r="26">
@@ -803,13 +803,13 @@
         <v>45464</v>
       </c>
       <c r="B26" t="n">
-        <v>298.1748</v>
+        <v>298.1779</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001221916323411953</v>
+        <v>0.001221567414034563</v>
       </c>
       <c r="D26" t="n">
-        <v>0.003857535796168099</v>
+        <v>0.003850398371635366</v>
       </c>
     </row>
     <row r="27">
@@ -817,13 +817,13 @@
         <v>45467</v>
       </c>
       <c r="B27" t="n">
-        <v>298.0119</v>
+        <v>298.0149</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.000546323834207274</v>
+        <v>-0.00054665352462413</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0003451690422615616</v>
+        <v>-0.0003461715340331573</v>
       </c>
     </row>
     <row r="28">
@@ -831,13 +831,13 @@
         <v>45468</v>
       </c>
       <c r="B28" t="n">
-        <v>292.5285</v>
+        <v>298.794</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.01839993637837956</v>
+        <v>0.00261429881526043</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01773743002690631</v>
+        <v>0.003290307611358845</v>
       </c>
     </row>
   </sheetData>
@@ -2767,12 +2767,12 @@
       </c>
       <c r="CA4" t="inlineStr">
         <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
+        <is>
           <t>PGR</t>
-        </is>
-      </c>
-      <c r="CB4" t="inlineStr">
-        <is>
-          <t>LRCX</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -5772,12 +5772,12 @@
       </c>
       <c r="BV10" t="inlineStr">
         <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="BW10" t="inlineStr">
+        <is>
           <t>BKNG</t>
-        </is>
-      </c>
-      <c r="BW10" t="inlineStr">
-        <is>
-          <t>LRCX</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
@@ -7827,12 +7827,12 @@
       </c>
       <c r="CC14" t="inlineStr">
         <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="CD14" t="inlineStr">
+        <is>
           <t>TJX</t>
-        </is>
-      </c>
-      <c r="CD14" t="inlineStr">
-        <is>
-          <t>LRCX</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
@@ -9317,17 +9317,17 @@
       </c>
       <c r="BX17" t="inlineStr">
         <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="BY17" t="inlineStr">
+        <is>
           <t>PGR</t>
         </is>
       </c>
-      <c r="BY17" t="inlineStr">
+      <c r="BZ17" t="inlineStr">
         <is>
           <t>ETN</t>
-        </is>
-      </c>
-      <c r="BZ17" t="inlineStr">
-        <is>
-          <t>LRCX</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
@@ -10807,17 +10807,17 @@
       </c>
       <c r="BS20" t="inlineStr">
         <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
           <t>HON</t>
         </is>
       </c>
-      <c r="BT20" t="inlineStr">
+      <c r="BU20" t="inlineStr">
         <is>
           <t>SYK</t>
-        </is>
-      </c>
-      <c r="BU20" t="inlineStr">
-        <is>
-          <t>LRCX</t>
         </is>
       </c>
       <c r="BV20" t="inlineStr">
@@ -11302,17 +11302,17 @@
       </c>
       <c r="BQ21" t="inlineStr">
         <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
           <t>SCHW</t>
         </is>
       </c>
-      <c r="BR21" t="inlineStr">
+      <c r="BS21" t="inlineStr">
         <is>
           <t>HON</t>
-        </is>
-      </c>
-      <c r="BS21" t="inlineStr">
-        <is>
-          <t>LRCX</t>
         </is>
       </c>
       <c r="BT21" t="inlineStr">
@@ -11807,17 +11807,17 @@
       </c>
       <c r="BQ22" t="inlineStr">
         <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
           <t>HON</t>
         </is>
       </c>
-      <c r="BR22" t="inlineStr">
+      <c r="BS22" t="inlineStr">
         <is>
           <t>SCHW</t>
-        </is>
-      </c>
-      <c r="BS22" t="inlineStr">
-        <is>
-          <t>LRCX</t>
         </is>
       </c>
       <c r="BT22" t="inlineStr">
@@ -12282,12 +12282,12 @@
       </c>
       <c r="BK23" t="inlineStr">
         <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="BL23" t="inlineStr">
+        <is>
           <t>GS</t>
-        </is>
-      </c>
-      <c r="BL23" t="inlineStr">
-        <is>
-          <t>LRCX</t>
         </is>
       </c>
       <c r="BM23" t="inlineStr">
@@ -13827,12 +13827,12 @@
       </c>
       <c r="BQ26" t="inlineStr">
         <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="BR26" t="inlineStr">
+        <is>
           <t>BA</t>
-        </is>
-      </c>
-      <c r="BR26" t="inlineStr">
-        <is>
-          <t>LRCX</t>
         </is>
       </c>
       <c r="BS26" t="inlineStr">
@@ -14547,457 +14547,457 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>BRK-B</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>JPM</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>XOM</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>ORCL</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>PG</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>COST</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>JNJ</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>HD</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>MRK</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>ABBV</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>BAC</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>NFLX</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
         <is>
           <t>KO</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>CVX</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AD28" t="inlineStr">
         <is>
           <t>AMD</t>
         </is>
       </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AE28" t="inlineStr">
         <is>
           <t>CRM</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>ADBE</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AG28" t="inlineStr">
         <is>
           <t>PEP</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AH28" t="inlineStr">
         <is>
           <t>QCOM</t>
         </is>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
         <is>
           <t>LIN</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr">
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
         <is>
           <t>ACN</t>
         </is>
       </c>
-      <c r="AG28" t="inlineStr">
+      <c r="AM28" t="inlineStr">
         <is>
           <t>AMAT</t>
         </is>
       </c>
-      <c r="AH28" t="inlineStr">
+      <c r="AN28" t="inlineStr">
         <is>
           <t>CSCO</t>
         </is>
       </c>
-      <c r="AI28" t="inlineStr">
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>DHR</t>
         </is>
       </c>
-      <c r="AJ28" t="inlineStr">
+      <c r="AR28" t="inlineStr">
         <is>
           <t>ABT</t>
         </is>
       </c>
-      <c r="AK28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
         <is>
           <t>MCD</t>
         </is>
       </c>
-      <c r="AL28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>INTU</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
         <is>
           <t>GE</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr">
+      <c r="AW28" t="inlineStr">
         <is>
           <t>AMGN</t>
         </is>
       </c>
-      <c r="AO28" t="inlineStr">
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
         <is>
           <t>AXP</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr">
+      <c r="AZ28" t="inlineStr">
         <is>
           <t>ISRG</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="BA28" t="inlineStr">
         <is>
           <t>MU</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="BB28" t="inlineStr">
         <is>
           <t>NOW</t>
         </is>
       </c>
-      <c r="AS28" t="inlineStr">
+      <c r="BC28" t="inlineStr">
         <is>
           <t>IBM</t>
         </is>
       </c>
-      <c r="AT28" t="inlineStr">
+      <c r="BD28" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
       </c>
-      <c r="AU28" t="inlineStr">
+      <c r="BE28" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="AV28" t="inlineStr">
+      <c r="BF28" t="inlineStr">
         <is>
           <t>CAT</t>
         </is>
       </c>
-      <c r="AW28" t="inlineStr">
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>UBER</t>
+        </is>
+      </c>
+      <c r="BH28" t="inlineStr">
         <is>
           <t>PFE</t>
         </is>
       </c>
-      <c r="AX28" t="inlineStr">
+      <c r="BI28" t="inlineStr">
         <is>
           <t>NEE</t>
         </is>
       </c>
-      <c r="AY28" t="inlineStr">
+      <c r="BJ28" t="inlineStr">
         <is>
           <t>COP</t>
         </is>
       </c>
-      <c r="AZ28" t="inlineStr">
+      <c r="BK28" t="inlineStr">
         <is>
           <t>CMCSA</t>
         </is>
       </c>
-      <c r="BA28" t="inlineStr">
+      <c r="BL28" t="inlineStr">
         <is>
           <t>GS</t>
         </is>
       </c>
-      <c r="BB28" t="inlineStr">
+      <c r="BM28" t="inlineStr">
         <is>
           <t>SPGI</t>
         </is>
       </c>
-      <c r="BC28" t="inlineStr">
+      <c r="BN28" t="inlineStr">
         <is>
           <t>HON</t>
         </is>
       </c>
-      <c r="BD28" t="inlineStr">
+      <c r="BO28" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="BP28" t="inlineStr">
         <is>
           <t>INTC</t>
         </is>
       </c>
-      <c r="BE28" t="inlineStr">
-        <is>
-          <t>LRCX</t>
-        </is>
-      </c>
-      <c r="BF28" t="inlineStr">
+      <c r="BQ28" t="inlineStr">
         <is>
           <t>RTX</t>
         </is>
       </c>
-      <c r="BG28" t="inlineStr">
+      <c r="BR28" t="inlineStr">
         <is>
           <t>SCHW</t>
         </is>
       </c>
-      <c r="BH28" t="inlineStr">
+      <c r="BS28" t="inlineStr">
         <is>
           <t>BA</t>
         </is>
       </c>
-      <c r="BI28" t="inlineStr">
+      <c r="BT28" t="inlineStr">
+        <is>
+          <t>UNP</t>
+        </is>
+      </c>
+      <c r="BU28" t="inlineStr">
         <is>
           <t>BKNG</t>
         </is>
       </c>
-      <c r="BJ28" t="inlineStr">
+      <c r="BV28" t="inlineStr">
+        <is>
+          <t>SYK</t>
+        </is>
+      </c>
+      <c r="BW28" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="BK28" t="inlineStr">
+      <c r="BX28" t="inlineStr">
         <is>
           <t>ETN</t>
         </is>
       </c>
-      <c r="BL28" t="inlineStr">
+      <c r="BY28" t="inlineStr">
+        <is>
+          <t>TJX</t>
+        </is>
+      </c>
+      <c r="BZ28" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="CA28" t="inlineStr">
         <is>
           <t>BLK</t>
         </is>
       </c>
-      <c r="BM28" t="inlineStr">
+      <c r="CB28" t="inlineStr">
         <is>
           <t>PGR</t>
         </is>
       </c>
-      <c r="BN28" t="inlineStr">
+      <c r="CC28" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
       </c>
-      <c r="BO28" t="inlineStr">
+      <c r="CD28" t="inlineStr">
         <is>
           <t>ELV</t>
         </is>
       </c>
-      <c r="BP28" t="inlineStr">
+      <c r="CE28" t="inlineStr">
         <is>
           <t>BSX</t>
         </is>
       </c>
-      <c r="BQ28" t="inlineStr">
+      <c r="CF28" t="inlineStr">
         <is>
           <t>REGN</t>
         </is>
       </c>
-      <c r="BR28" t="inlineStr">
+      <c r="CG28" t="inlineStr">
         <is>
           <t>ADI</t>
         </is>
       </c>
-      <c r="BS28" t="inlineStr">
+      <c r="CH28" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="BT28" t="inlineStr">
+      <c r="CI28" t="inlineStr">
         <is>
           <t>NKE</t>
         </is>
       </c>
-      <c r="BU28" t="inlineStr">
+      <c r="CJ28" t="inlineStr">
         <is>
           <t>PANW</t>
         </is>
       </c>
-      <c r="BV28" t="inlineStr">
+      <c r="CK28" t="inlineStr">
         <is>
           <t>KLAC</t>
         </is>
       </c>
-      <c r="BW28" t="inlineStr">
+      <c r="CL28" t="inlineStr">
         <is>
           <t>LMT</t>
         </is>
       </c>
-      <c r="BX28" t="inlineStr">
+      <c r="CM28" t="inlineStr">
         <is>
           <t>ANET</t>
         </is>
       </c>
-      <c r="BY28" t="inlineStr">
+      <c r="CN28" t="inlineStr">
         <is>
           <t>CB</t>
         </is>
       </c>
-      <c r="BZ28" t="inlineStr">
+      <c r="CO28" t="inlineStr">
         <is>
           <t>MMC</t>
         </is>
       </c>
-      <c r="CA28" t="inlineStr">
+      <c r="CP28" t="inlineStr">
         <is>
           <t>MDT</t>
         </is>
       </c>
-      <c r="CB28" t="inlineStr">
+      <c r="CQ28" t="inlineStr">
         <is>
           <t>ADP</t>
         </is>
       </c>
-      <c r="CC28" t="inlineStr">
+      <c r="CR28" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="CD28" t="inlineStr">
+      <c r="CS28" t="inlineStr">
         <is>
           <t>PLD</t>
         </is>
       </c>
-      <c r="CE28" t="inlineStr">
+      <c r="CT28" t="inlineStr">
         <is>
           <t>CRWD</t>
         </is>
       </c>
-      <c r="CF28" t="inlineStr">
+      <c r="CU28" t="inlineStr">
         <is>
           <t>KKR</t>
         </is>
       </c>
-      <c r="CG28" t="inlineStr">
-        <is>
-          <t>CI</t>
-        </is>
-      </c>
-      <c r="CH28" t="inlineStr">
-        <is>
-          <t>CMG</t>
-        </is>
-      </c>
-      <c r="CI28" t="inlineStr">
-        <is>
-          <t>BX</t>
-        </is>
-      </c>
-      <c r="CJ28" t="inlineStr">
-        <is>
-          <t>AMT</t>
-        </is>
-      </c>
-      <c r="CK28" t="inlineStr">
-        <is>
-          <t>MDLZ</t>
-        </is>
-      </c>
-      <c r="CL28" t="inlineStr">
-        <is>
-          <t>COF</t>
-        </is>
-      </c>
-      <c r="CM28" t="inlineStr">
-        <is>
-          <t>CDNS</t>
-        </is>
-      </c>
-      <c r="CN28" t="inlineStr">
-        <is>
-          <t>GILD</t>
-        </is>
-      </c>
-      <c r="CO28" t="inlineStr">
-        <is>
-          <t>FI</t>
-        </is>
-      </c>
-      <c r="CP28" t="inlineStr">
-        <is>
-          <t>BMY</t>
-        </is>
-      </c>
-      <c r="CQ28" t="inlineStr">
-        <is>
-          <t>APH</t>
-        </is>
-      </c>
-      <c r="CR28" t="inlineStr">
-        <is>
-          <t>HCA</t>
-        </is>
-      </c>
-      <c r="CS28" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="CT28" t="inlineStr">
-        <is>
-          <t>ICE</t>
-        </is>
-      </c>
-      <c r="CU28" t="inlineStr">
-        <is>
-          <t>GD</t>
-        </is>
-      </c>
       <c r="CV28" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="CW28" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>SNPS</t>
         </is>
       </c>
     </row>
@@ -15438,18 +15438,10 @@
       <c r="A28" s="2" t="n">
         <v>45468</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>AMT,APH,BMY,BX,CDNS,CI,CL,CMG,COF,FI,GD,GILD,HCA,ICE,MCK,MCO,MDLZ</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>DIS,SNPS,SYK,TJX,TMO,TMUS,TSLA,TXN,UBER,UNH,UNP,UPS,V,VRTX,VZ,WFC,WMT</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -15609,64 +15601,64 @@
         <v>45448</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45468</v>
+        <v>45442</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02501780293092464</v>
+        <v>-0.02501774191029613</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0275215468716683</v>
+        <v>0.04951248323222535</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00105903798678042</v>
+        <v>0.001837116035915615</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01050568789714973</v>
+        <v>0.009760532185329469</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1008061534997384</v>
+        <v>0.1882188389970052</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1594987206772665</v>
+        <v>0.3113144045900408</v>
       </c>
       <c r="K2" t="n">
-        <v>1.093549516370149</v>
+        <v>1.03103691378062</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2883941724293591</v>
+        <v>0.5699446702622939</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1667726251651159</v>
+        <v>0.1549436449561415</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5993339761019567</v>
+        <v>0.9246198107341564</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2942635272307049</v>
+        <v>0.2942884995423958</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.740740740740741</v>
+        <v>1.481481481481481</v>
       </c>
       <c r="R2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9746121084372557</v>
+        <v>0.9853750080890442</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.01551276761186841</v>
+        <v>-0.01362801732077585</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.01782126408251887</v>
+        <v>-0.01560071787743522</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2787141656281607</v>
+        <v>0.4141014623341344</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02829323676394369</v>
+        <v>0.2593777177299641</v>
       </c>
       <c r="X2" t="n">
         <v>3</v>
